--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N2">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O2">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P2">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q2">
-        <v>0.432574256504</v>
+        <v>0.8805329170340001</v>
       </c>
       <c r="R2">
-        <v>2.595445539024</v>
+        <v>5.283197502204001</v>
       </c>
       <c r="S2">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="T2">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>36.540661</v>
       </c>
       <c r="O3">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P3">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q3">
         <v>6.997999429872666</v>
@@ -641,10 +641,10 @@
         <v>62.981994868854</v>
       </c>
       <c r="S3">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="T3">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N4">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O4">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P4">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q4">
-        <v>0.2709329695333333</v>
+        <v>0.489978071698</v>
       </c>
       <c r="R4">
-        <v>2.4383967258</v>
+        <v>4.409802645281999</v>
       </c>
       <c r="S4">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="T4">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N5">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O5">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P5">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q5">
-        <v>1.947624929855</v>
+        <v>2.145266001855</v>
       </c>
       <c r="R5">
-        <v>11.68574957913</v>
+        <v>12.87159601113</v>
       </c>
       <c r="S5">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="T5">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N6">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O6">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P6">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q6">
-        <v>0.3651342200133333</v>
+        <v>0.1233715023033333</v>
       </c>
       <c r="R6">
-        <v>3.28620798012</v>
+        <v>1.11034352073</v>
       </c>
       <c r="S6">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="T6">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3304726666666667</v>
+        <v>0.7398226666666666</v>
       </c>
       <c r="N7">
-        <v>0.991418</v>
+        <v>2.219468</v>
       </c>
       <c r="O7">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="P7">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
       <c r="Q7">
-        <v>0.1898691049613334</v>
+        <v>0.4250562352613333</v>
       </c>
       <c r="R7">
-        <v>1.708821944652</v>
+        <v>3.825506117352</v>
       </c>
       <c r="S7">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="T7">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
     </row>
   </sheetData>
